--- a/biology/Botanique/Jean-Paul_II_(rose)/Jean-Paul_II_(rose).xlsx
+++ b/biology/Botanique/Jean-Paul_II_(rose)/Jean-Paul_II_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Jean-Paul II' est un cultivar de rosier obtenu avant 2006 par le Dr Keith Zary, et introduit au commerce en 2006 par la maison américaine Jackson &amp; Perkins. Il rend hommage au pape Jean-Paul II[1]. C'est l'une des roses les plus parfumées au monde[1].
+'Jean-Paul II' est un cultivar de rosier obtenu avant 2006 par le Dr Keith Zary, et introduit au commerce en 2006 par la maison américaine Jackson &amp; Perkins. Il rend hommage au pape Jean-Paul II. C'est l'une des roses les plus parfumées au monde.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier hybride de thé à grandes fleurs doubles (50 pétales) de 15 cm, d'un blanc immaculé et très parfumées, aux nuances citronnées[2]. Sa floraison intervient de fin mai aux gelées[3].
-Son buisson au port érigé présente un beau feuillage vert foncé brillant. Ce rosier a besoin d'une exposition ensoleillée[4]. Il résiste à des températures hivernales de -15° à -20°[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier hybride de thé à grandes fleurs doubles (50 pétales) de 15 cm, d'un blanc immaculé et très parfumées, aux nuances citronnées. Sa floraison intervient de fin mai aux gelées.
+Son buisson au port érigé présente un beau feuillage vert foncé brillant. Ce rosier a besoin d'une exposition ensoleillée. Il résiste à des températures hivernales de -15° à -20°.
 Cette rose éclaire les massifs et embaume les jardins. Ses longues tiges en font une fleur parfaite pour les bouquets.
 </t>
         </is>
